--- a/docs/MetaData_Software_Fields 11_14_16.xlsx
+++ b/docs/MetaData_Software_Fields 11_14_16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stooksburys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vowelll\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="285">
   <si>
     <t>DOE Award/Contract Number</t>
   </si>
@@ -780,9 +780,6 @@
     <t>if not Open Source; follow 241.1 and/or 241.3 guidelines</t>
   </si>
   <si>
-    <t>continue to be free-form?  Work with legal team?</t>
-  </si>
-  <si>
     <t>default to USDOE if nothing selected</t>
   </si>
   <si>
@@ -865,9 +862,6 @@
   </si>
   <si>
     <t>follow 241.1 and 241.3 guidelines and fields (orcid, affiliation, email, etc.); but affiliation may need to be mandatory</t>
-  </si>
-  <si>
-    <t>Rights/Licenses/Legal Notices/Disclaimers</t>
   </si>
   <si>
     <t>we will use account information to autofill these field, but will allow for edits</t>
@@ -916,6 +910,18 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Rights/Legal Notices/Disclaimers</t>
+  </si>
+  <si>
+    <t>for open source we will supply a list of known open source licenses for them to pick from; possibly not needed for limited software</t>
+  </si>
+  <si>
+    <t>Daniel Lamb says this has value</t>
   </si>
 </sst>
 </file>
@@ -1383,6 +1389,102 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1390,102 +1492,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1839,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT31"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,19 +1865,19 @@
   <sheetData>
     <row r="1" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="47" t="s">
         <v>274</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -1934,7 +1940,7 @@
     </row>
     <row r="3" spans="1:46" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>23</v>
@@ -1943,10 +1949,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
@@ -2004,12 +2010,12 @@
         <v>77</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>23</v>
@@ -2193,7 +2199,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -2210,12 +2216,12 @@
         <v>77</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>23</v>
@@ -2227,7 +2233,7 @@
         <v>239</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -2244,7 +2250,7 @@
         <v>239</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="12" spans="1:46" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>23</v>
@@ -2373,7 +2379,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -2408,7 +2414,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>77</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>77</v>
@@ -2435,12 +2441,12 @@
         <v>239</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="59" t="s">
         <v>77</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>77</v>
@@ -2467,12 +2473,12 @@
         <v>239</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>23</v>
@@ -2484,61 +2490,63 @@
         <v>239</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="48" t="s">
+      <c r="B23" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="D23" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="53" t="s">
+      <c r="B24" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="53" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>77</v>
@@ -2547,13 +2555,13 @@
         <v>77</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="E25" s="53"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>77</v>
@@ -2568,41 +2576,39 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="53" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>266</v>
-      </c>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="53" t="s">
+      <c r="C28" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>239</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>77</v>
@@ -2613,13 +2619,15 @@
       <c r="D29" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="53" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="62" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="53" t="s">
@@ -2628,16 +2636,31 @@
       <c r="D30" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="E30" s="53" t="s">
-        <v>255</v>
-      </c>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
+      <c r="A31" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2666,19 +2689,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="92" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2692,13 +2715,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2710,13 +2733,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2724,13 +2747,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2738,11 +2761,11 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="70"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2788,38 +2811,38 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="95">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="F8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -3016,66 +3039,66 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
+      <c r="A20" s="86">
         <v>5</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73" t="s">
+      <c r="D20" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="73"/>
+      <c r="H20" s="86"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
     </row>
     <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75">
+      <c r="A22" s="79">
         <v>6</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="D22" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="76"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
@@ -3107,17 +3130,17 @@
       <c r="A27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="89"/>
+      <c r="B28" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="92" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3131,13 +3154,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
@@ -3149,11 +3172,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3161,11 +3184,11 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="69"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3173,11 +3196,11 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="70"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -3443,36 +3466,36 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="77">
+      <c r="A47" s="84">
         <v>9.1</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
       <c r="G47" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H47" s="77"/>
+      <c r="H47" s="84"/>
     </row>
     <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H48" s="78"/>
+      <c r="H48" s="85"/>
     </row>
     <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -3495,16 +3518,16 @@
       <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="73">
+      <c r="A50" s="86">
         <v>11</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="86" t="s">
         <v>77</v>
       </c>
       <c r="E50" s="21" t="s">
@@ -3514,81 +3537,81 @@
         <v>23</v>
       </c>
       <c r="G50" s="21"/>
-      <c r="H50" s="73" t="s">
+      <c r="H50" s="86" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="79"/>
+      <c r="H51" s="87"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="21"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="79"/>
+      <c r="H52" s="87"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="21"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="21" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="79"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
       <c r="E54" s="22"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
-      <c r="H54" s="79"/>
+      <c r="H54" s="87"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="22"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="79"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="22"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="79"/>
+      <c r="H56" s="87"/>
     </row>
     <row r="57" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="74"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
       <c r="E57" s="23"/>
       <c r="F57" s="24" t="s">
         <v>50</v>
@@ -3596,7 +3619,7 @@
       <c r="G57" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="H57" s="74"/>
+      <c r="H57" s="88"/>
     </row>
     <row r="58" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
@@ -3639,344 +3662,344 @@
       <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="75">
+      <c r="A60" s="79">
         <v>12.1</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
       <c r="G60" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="75"/>
+      <c r="H60" s="79"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
       <c r="G61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="76"/>
+      <c r="H61" s="81"/>
     </row>
     <row r="62" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75">
+      <c r="A62" s="79">
         <v>12.2</v>
       </c>
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="75"/>
+      <c r="H62" s="79"/>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
       <c r="G63" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H63" s="83"/>
+      <c r="H63" s="80"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="76"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
       <c r="G64" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H64" s="76"/>
+      <c r="H64" s="81"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="75">
+      <c r="A65" s="79">
         <v>12.3</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="79" t="s">
         <v>135</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
       <c r="D66" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="76"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="76"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="75">
+      <c r="A68" s="79">
         <v>12.4</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="79" t="s">
         <v>138</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
       <c r="D69" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="76"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
       <c r="D70" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="75">
+      <c r="A71" s="79">
         <v>12.5</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="79" t="s">
         <v>140</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="76"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
     </row>
     <row r="74" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="84">
+      <c r="A74" s="82">
         <v>13</v>
       </c>
-      <c r="B74" s="84" t="s">
+      <c r="B74" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
+      <c r="D74" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
       <c r="G74" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="84"/>
+      <c r="H74" s="82"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="85"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
       <c r="G75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="85"/>
+      <c r="H75" s="83"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="86">
+      <c r="A76" s="73">
         <v>14</v>
       </c>
-      <c r="B76" s="86" t="s">
+      <c r="B76" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="86" t="s">
+      <c r="C76" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
+      <c r="D76" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
       <c r="G76" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="H76" s="86"/>
+      <c r="H76" s="73"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="87"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
       <c r="G77" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H77" s="87"/>
+      <c r="H77" s="74"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
       <c r="G78" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H78" s="88"/>
+      <c r="H78" s="75"/>
     </row>
     <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="89">
+      <c r="A79" s="76">
         <v>15</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="89" t="s">
+      <c r="C79" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="89" t="s">
+      <c r="D79" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="89" t="s">
+      <c r="F79" s="76" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H79" s="89"/>
+      <c r="H79" s="76"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
       <c r="G80" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="H80" s="90"/>
+      <c r="H80" s="77"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="29"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
       <c r="G81" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="H81" s="90"/>
+      <c r="H81" s="77"/>
     </row>
     <row r="82" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="30"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
       <c r="G82" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H82" s="91"/>
+      <c r="H82" s="78"/>
     </row>
     <row r="83" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
@@ -4113,32 +4136,32 @@
       <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="92">
+      <c r="A90" s="65">
         <v>18.3</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="92" t="s">
+      <c r="C90" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="92" t="s">
+      <c r="D90" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
-      <c r="H90" s="92"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="93"/>
-      <c r="B91" s="93"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
@@ -4206,42 +4229,42 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="94" t="s">
+      <c r="A103" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="94" t="s">
+      <c r="B103" s="67" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="94" t="s">
+      <c r="D103" s="67" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="95"/>
-      <c r="B104" s="95"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
       <c r="C104" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D104" s="95"/>
+      <c r="D104" s="68"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="95"/>
-      <c r="B105" s="95"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
       <c r="C105" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D105" s="95"/>
+      <c r="D105" s="68"/>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="96"/>
-      <c r="B106" s="96"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="96"/>
+      <c r="D106" s="69"/>
     </row>
     <row r="107" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="40" t="s">
@@ -4498,34 +4521,34 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="97" t="s">
+      <c r="A126" s="70" t="s">
         <v>229</v>
       </c>
       <c r="B126" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="97" t="s">
+      <c r="C126" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="70" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="98"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C127" s="98"/>
-      <c r="D127" s="98"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="99"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C128" s="99"/>
-      <c r="D128" s="99"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
     </row>
     <row r="129" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="40" t="s">
@@ -4543,90 +4566,15 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -4644,15 +4592,90 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:C5"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="H50:H57"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
